--- a/LibrosComicsThor.xlsx
+++ b/LibrosComicsThor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP-eliteFolio\Desktop\FullSTack\Proyecto Thor\libreriaThor\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A208BB-D6F4-4420-92E3-DC04225F7FB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="256">
   <si>
     <t>Terror</t>
   </si>
@@ -1500,14 +1501,17 @@
       </rPr>
       <t xml:space="preserve"> comic book series which debuted in 1963.</t>
     </r>
+  </si>
+  <si>
+    <t>recomendado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1621,7 +1625,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1633,7 +1637,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1911,14 +1915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" customWidth="1"/>
@@ -1927,7 +1931,7 @@
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -1946,8 +1950,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1966,8 +1973,11 @@
       <c r="F2" s="3">
         <v>65000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -1986,8 +1996,11 @@
       <c r="F3" s="2">
         <v>44000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2006,8 +2019,11 @@
       <c r="F4" s="2">
         <v>45000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -2026,8 +2042,11 @@
       <c r="F5" s="2">
         <v>38000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -2046,8 +2065,11 @@
       <c r="F6" s="2">
         <v>53000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -2066,8 +2088,11 @@
       <c r="F7" s="2">
         <v>25000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -2086,8 +2111,11 @@
       <c r="F8" s="2">
         <v>38000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -2106,8 +2134,11 @@
       <c r="F9" s="2">
         <v>51000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2126,8 +2157,11 @@
       <c r="F10" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2146,8 +2180,11 @@
       <c r="F11" s="2">
         <v>49000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -2166,8 +2203,11 @@
       <c r="F12" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -2186,8 +2226,11 @@
       <c r="F13" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -2206,8 +2249,11 @@
       <c r="F14" s="2">
         <v>55000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -2226,8 +2272,11 @@
       <c r="F15" s="2">
         <v>55000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -2246,8 +2295,11 @@
       <c r="F16" s="2">
         <v>550000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -2266,8 +2318,11 @@
       <c r="F17" s="2">
         <v>43000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -2286,8 +2341,11 @@
       <c r="F18" s="2">
         <v>44000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -2306,8 +2364,11 @@
       <c r="F19" s="3">
         <v>90000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -2326,8 +2387,11 @@
       <c r="F20" s="2">
         <v>75000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -2346,8 +2410,11 @@
       <c r="F21" s="2">
         <v>35000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2366,8 +2433,11 @@
       <c r="F22" s="2">
         <v>35000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -2386,8 +2456,11 @@
       <c r="F23" s="2">
         <v>34000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -2406,8 +2479,11 @@
       <c r="F24" s="2">
         <v>42000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -2426,8 +2502,11 @@
       <c r="F25" s="2">
         <v>55000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -2446,8 +2525,11 @@
       <c r="F26" s="2">
         <v>75000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2466,8 +2548,11 @@
       <c r="F27" s="2">
         <v>53000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -2486,8 +2571,11 @@
       <c r="F28" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -2506,8 +2594,11 @@
       <c r="F29" s="2">
         <v>2800000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -2526,8 +2617,11 @@
       <c r="F30" s="2">
         <v>34000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2546,8 +2640,11 @@
       <c r="F31" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -2566,8 +2663,11 @@
       <c r="F32" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -2586,8 +2686,11 @@
       <c r="F33" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -2606,8 +2709,11 @@
       <c r="F34" s="3">
         <v>55000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -2626,8 +2732,11 @@
       <c r="F35" s="2">
         <v>45000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -2646,8 +2755,11 @@
       <c r="F36" s="2">
         <v>45000</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2666,8 +2778,11 @@
       <c r="F37" s="2">
         <v>45000</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -2686,8 +2801,11 @@
       <c r="F38" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -2706,8 +2824,11 @@
       <c r="F39" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -2726,8 +2847,11 @@
       <c r="F40" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2746,8 +2870,11 @@
       <c r="F41" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -2766,8 +2893,11 @@
       <c r="F42" s="2">
         <v>45000</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2786,8 +2916,11 @@
       <c r="F43" s="2">
         <v>45000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2806,8 +2939,11 @@
       <c r="F44" s="8">
         <v>10000</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -2826,8 +2962,11 @@
       <c r="F45" s="9">
         <v>125000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -2846,8 +2985,11 @@
       <c r="F46" s="9">
         <v>45000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -2866,8 +3008,11 @@
       <c r="F47" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2886,8 +3031,11 @@
       <c r="F48" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -2906,8 +3054,11 @@
       <c r="F49" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -2926,8 +3077,11 @@
       <c r="F50" s="9">
         <v>45000</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>139</v>
       </c>
@@ -2946,8 +3100,11 @@
       <c r="F51" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -2966,8 +3123,11 @@
       <c r="F52" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -2986,8 +3146,11 @@
       <c r="F53" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -3006,8 +3169,11 @@
       <c r="F54" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -3026,8 +3192,11 @@
       <c r="F55" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -3046,8 +3215,11 @@
       <c r="F56" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -3066,8 +3238,11 @@
       <c r="F57" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -3086,8 +3261,11 @@
       <c r="F58" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -3106,8 +3284,11 @@
       <c r="F59" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>139</v>
       </c>
@@ -3126,8 +3307,11 @@
       <c r="F60" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -3146,8 +3330,11 @@
       <c r="F61" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -3166,8 +3353,11 @@
       <c r="F62" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -3186,8 +3376,11 @@
       <c r="F63" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -3206,8 +3399,11 @@
       <c r="F64" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -3226,8 +3422,11 @@
       <c r="F65" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -3246,8 +3445,11 @@
       <c r="F66" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -3266,8 +3468,11 @@
       <c r="F67" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -3286,8 +3491,11 @@
       <c r="F68" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -3306,8 +3514,11 @@
       <c r="F69" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -3326,8 +3537,11 @@
       <c r="F70" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -3346,8 +3560,11 @@
       <c r="F71" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -3366,8 +3583,11 @@
       <c r="F72" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -3386,8 +3606,11 @@
       <c r="F73" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -3406,8 +3629,11 @@
       <c r="F74" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>139</v>
       </c>
@@ -3426,8 +3652,11 @@
       <c r="F75" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -3446,8 +3675,11 @@
       <c r="F76" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>139</v>
       </c>
@@ -3466,8 +3698,11 @@
       <c r="F77" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -3486,8 +3721,11 @@
       <c r="F78" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -3506,8 +3744,11 @@
       <c r="F79" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>139</v>
       </c>
@@ -3526,8 +3767,11 @@
       <c r="F80" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -3546,8 +3790,11 @@
       <c r="F81" s="9">
         <v>675000</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>139</v>
       </c>
@@ -3566,8 +3813,11 @@
       <c r="F82" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>139</v>
       </c>
@@ -3586,8 +3836,11 @@
       <c r="F83" s="9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -3606,92 +3859,95 @@
       <c r="F84" s="9">
         <v>10000</v>
       </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D41" r:id="rId39"/>
-    <hyperlink ref="D42" r:id="rId40"/>
-    <hyperlink ref="D43" r:id="rId41"/>
-    <hyperlink ref="D40" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77" display="https://www.google.com/url?sa=i&amp;rct=j&amp;q=&amp;esrc=s&amp;source=images&amp;cd=&amp;ved=2ahUKEwiN9uvFna_iAhVnrlkKHcXsB3YQjRx6BAgBEAU&amp;url=https%3A%2F%2Fwww.comixology.co.uk%2FWonder-Woman-FCBD-2017-Special-Edition-2017-1%2Fdigital-comic%2F525593&amp;psig=AOvVaw23Gqe-Vh1ygIMfeDN5UZcY&amp;ust=1558616079052919"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79" display="https://www.covernk.com/Covers/S/S/Superman 2016 series/superman2016series10.jpg"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D40" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D78" r:id="rId77" display="https://www.google.com/url?sa=i&amp;rct=j&amp;q=&amp;esrc=s&amp;source=images&amp;cd=&amp;ved=2ahUKEwiN9uvFna_iAhVnrlkKHcXsB3YQjRx6BAgBEAU&amp;url=https%3A%2F%2Fwww.comixology.co.uk%2FWonder-Woman-FCBD-2017-Special-Edition-2017-1%2Fdigital-comic%2F525593&amp;psig=AOvVaw23Gqe-Vh1ygIMfeDN5UZcY&amp;ust=1558616079052919" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D80" r:id="rId79" display="https://www.covernk.com/Covers/S/S/Superman 2016 series/superman2016series10.jpg" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
